--- a/portifolio.xlsx
+++ b/portifolio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28330"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weidian/Dropbox/fintech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloga/Dropbox/fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="25360" windowHeight="15880" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="原始股价" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,41 @@
     <sheet name="efficeint_frontier" sheetId="4" r:id="rId4"/>
     <sheet name="加入无风险组合的权重" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">efficeint_frontier!$F$60</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">efficeint_frontier!$F$58</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">efficeint_frontier!$F$58</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">efficeint_frontier!$F$60</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
   <si>
     <t>福耀玻璃-(600660)</t>
   </si>
@@ -283,13 +317,51 @@
   </si>
   <si>
     <t>组合标准差</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合</t>
+    <rPh sb="0" eb="1">
+      <t>zu he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     return        std</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +383,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -344,17 +438,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,42 +483,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -777,7 +849,107 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>capital line1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>efficeint_frontier!$L$57:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.180279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>efficeint_frontier!$K$57:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.454759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>capital line2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>efficeint_frontier!$O$57:$O$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.180279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.416334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>efficeint_frontier!$N$57:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.454759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.809711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -787,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65867424"/>
-        <c:axId val="21633024"/>
+        <c:axId val="-1668135632"/>
+        <c:axId val="-1668132880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65867424"/>
+        <c:axId val="-1668135632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -812,6 +984,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -848,18 +1021,19 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21633024"/>
+        <c:crossAx val="-1668132880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21633024"/>
+        <c:axId val="-1668132880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -896,7 +1070,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65867424"/>
+        <c:crossAx val="-1668135632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6529,9 +6703,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -6802,10 +6981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7035,10 +7214,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>2.4550563225802988</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>6.1811434801807854</v>
       </c>
     </row>
@@ -7194,7 +7373,7 @@
         <v>7.0266242547995637</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2.655457124140526</v>
       </c>
@@ -7202,7 +7381,7 @@
         <v>7.0868176967210701</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2.6654771642788559</v>
       </c>
@@ -7210,7 +7389,7 @@
         <v>7.1484005175154399</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2.6754972029662558</v>
       </c>
@@ -7218,7 +7397,7 @@
         <v>7.2128854327241294</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2.685517243142288</v>
       </c>
@@ -7226,7 +7405,7 @@
         <v>7.280573752782848</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2.6955372840231981</v>
       </c>
@@ -7234,7 +7413,7 @@
         <v>7.3513769563849456</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2.705557324047223</v>
       </c>
@@ -7242,17 +7421,120 @@
         <v>7.4252058801490186</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2.715577365635276</v>
       </c>
       <c r="B55">
         <v>7.5019713280909519</v>
+      </c>
+      <c r="F55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2.4550563225802988</v>
+      </c>
+      <c r="G56" s="2">
+        <v>6.1811434801807854</v>
+      </c>
+      <c r="K56" t="s">
+        <v>92</v>
+      </c>
+      <c r="N56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57">
+        <v>0.34</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.34</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2.4547590000000001</v>
+      </c>
+      <c r="O57">
+        <v>6.1802789999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58">
+        <v>1.2</v>
+      </c>
+      <c r="K58">
+        <v>2.4547590000000001</v>
+      </c>
+      <c r="L58">
+        <v>6.1802789999999996</v>
+      </c>
+      <c r="N58">
+        <v>2.8097110000000001</v>
+      </c>
+      <c r="O58">
+        <v>7.416334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59">
+        <f>F57*(1-F58)+F58*F56</f>
+        <v>2.8780675870963583</v>
+      </c>
+      <c r="G59">
+        <f>G56^2*F58^2</f>
+        <v>55.017410000517259</v>
+      </c>
+      <c r="K59">
+        <v>3.4194659044898699</v>
+      </c>
+      <c r="L59">
+        <v>8.9995855662761297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60">
+        <f>F59-0.005*F61*G59</f>
+        <v>1.5026323370834267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7261,11 +7543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
